--- a/data/trans_orig/P32E$bar_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32E$bar_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{600F79EA-EE49-4761-8BB0-459D371A34A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F535AE-5AF3-4C3D-B0F5-4B37E5F80472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D91BEF1-DA62-49EC-BC59-9EC4F8083A3B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{51A0387E-85EF-4410-A151-21999699A3BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="271">
-  <si>
-    <t>Población según lugares donde se realiza el consumo de alcohol (atracón) en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="272">
+  <si>
+    <t>Población según lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>Bares, pub, restaurantes</t>
   </si>
   <si>
-    <t>44,92%</t>
+    <t>49,75%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -80,16 +80,16 @@
     <t>100%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>Casa</t>
   </si>
   <si>
-    <t>55,08%</t>
+    <t>50,25%</t>
   </si>
   <si>
     <t>0%</t>
@@ -98,10 +98,10 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>Casas de amistades, familiares</t>
@@ -122,49 +122,49 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -173,163 +173,166 @@
     <t>Cordoba</t>
   </si>
   <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -344,19 +347,22 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -365,100 +371,100 @@
     <t>Jaen</t>
   </si>
   <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -470,382 +476,379 @@
     <t>Malaga</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1260,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599F8FFF-F68E-4EFA-A5FF-DAFC3C193625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F90BEB0-AF72-42D4-B641-1ACCE9843F5B}">
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,22 +1927,22 @@
         <v>92</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1963,7 +1966,7 @@
         <v>18</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>10</v>
@@ -1972,7 +1975,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1996,7 +1999,7 @@
         <v>18</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>10</v>
@@ -2005,12 +2008,12 @@
         <v>18</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
@@ -2019,7 +2022,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>13</v>
@@ -2034,10 +2037,10 @@
         <v>35</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -2049,10 +2052,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>11</v>
@@ -2067,10 +2070,10 @@
         <v>13</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
@@ -2106,7 +2109,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2139,7 +2142,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2172,42 +2175,42 @@
         <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2216,31 +2219,31 @@
         <v>16</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2249,31 +2252,31 @@
         <v>22</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2282,31 +2285,31 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2321,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
@@ -2339,42 +2342,42 @@
         <v>18</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2383,31 +2386,31 @@
         <v>16</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2416,31 +2419,31 @@
         <v>22</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2449,31 +2452,31 @@
         <v>25</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2482,66 +2485,66 @@
         <v>26</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2550,31 +2553,31 @@
         <v>16</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2583,31 +2586,31 @@
         <v>22</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2616,31 +2619,31 @@
         <v>25</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2655,25 +2658,25 @@
         <v>18</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2684,31 +2687,31 @@
         <v>8</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2717,31 +2720,31 @@
         <v>16</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2750,31 +2753,31 @@
         <v>22</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2783,31 +2786,31 @@
         <v>25</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2816,36 +2819,36 @@
         <v>26</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32E$bar_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32E$bar_2023-Provincia-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
+          <t>Población según los lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
